--- a/medicine/Enfance/Nathalie_Novi/Nathalie_Novi.xlsx
+++ b/medicine/Enfance/Nathalie_Novi/Nathalie_Novi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Novi est une peintre, illustratrice, autrice de littérature jeunesse et affichiste française née le 5 octobre 1963 à Saint-Mihiel (Meuse).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en Lorraine, d'une mère alsacienne et d'un père  d'origine italienne, Nathalie Novi passe ses premières années à Constantine, en Algérie. Elle intègre les Beaux Arts de Nancy, puis l’École nationale supérieure des beaux-arts de Paris, où elle étudie la gravure en taille douce avec Pierre Courtin[1],[2],[3],[4]. Philippe Thomine a réalisé en 2008 un documentaire sur son parcours, sous le titre De l’autre côté du miroir, Nathalie Novi[5],[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en Lorraine, d'une mère alsacienne et d'un père  d'origine italienne, Nathalie Novi passe ses premières années à Constantine, en Algérie. Elle intègre les Beaux Arts de Nancy, puis l’École nationale supérieure des beaux-arts de Paris, où elle étudie la gravure en taille douce avec Pierre Courtin. Philippe Thomine a réalisé en 2008 un documentaire sur son parcours, sous le titre De l’autre côté du miroir, Nathalie Novi,
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a illustré et écrit de nombreux livres[7].
-Autrice et illustratrice
-Nathalie Novi (ill. Nathalie Novi), Trois sœurs, 2014.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a illustré et écrit de nombreux livres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nathalie_Novi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Novi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nathalie Novi (ill. Nathalie Novi), Trois sœurs, 2014.
 Nathalie Novi (ill. Nathalie Novi), Yeghvala, 2012 (réimpr. 2013).
 Nathalie Novi (ill. Nathalie Novi), La Création, 2011.
 Nathalie Novi (ill. Nathalie Novi), La Petite Fille et l'Oiseau, 2008.
@@ -561,19 +612,53 @@
 Nathalie Novi (ill. Nathalie Novi), Le Cœur de Violette, 2000.
 Nathalie Novi (ill. Nathalie Novi), Et les petites filles dansent, 1999 (réimpr. 2007).
 Nathalie Novi (ill. Nathalie Novi), Quelqu'un que tu aimais est mort, 1997 (réimpr. 2010 et 2014).
-Nathalie Novi (ill. Nathalie Novi), Fête foraine, Nathan, 1997.
-Illustratrice
-Clotilde Bernos (ill. Nathalie Novi), Moi, Ming, 2019.
+Nathalie Novi (ill. Nathalie Novi), Fête foraine, Nathan, 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathalie_Novi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Novi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clotilde Bernos (ill. Nathalie Novi), Moi, Ming, 2019.
 Bruno Doucey (ill. Nathalie Novi), La vie est belle, 2019.
 Jean-Pierre Kerloc'h (ill. Nathalie Novi), La Flûte enchantée racontée aux enfants, 2019.
 Alain Serres, Rue du monde (ill. Nathalie Novi), C'est ainsi que nous habitons le monde, 2018.
 Mes belles histoires en attendant Noël  (ill. Nathalie Novi), Bayard, 2018.
-Fabrice Colin et Albin Michel (ill. Nathalie Novi), Le Musée imaginaire de Jane Austen, 2017[8].
+Fabrice Colin et Albin Michel (ill. Nathalie Novi), Le Musée imaginaire de Jane Austen, 2017.
 Alain Serres (ill. Nathalie Novi), Bonnes nouvelles du monde !, 2016.
 Carl Norac (ill. Nathalie Novi, raconté par Michel Fau), Les Mille et un voyages de Claudio Monteverdi, 2017.
 Le Rêveur qui ramassait des papiers bonbon  (ill. Nathalie Novi), La poule qui pond, 2015.
 Marie Sellier (ill. Nathalie Novi), Les Douze manteaux de Maman, Le Baron Perché, 2014.)
-Daniel Picouly (ill. Nathalie Novi), Et si on redessinait le Monde, Rue du Monde, 2013[9].
+Daniel Picouly (ill. Nathalie Novi), Et si on redessinait le Monde, Rue du Monde, 2013.
 Halima Hamdane (ill. Nathalie Novi), Mahboul le sage et autres contes marocains, 2013.
 Jacques Prévert (ill. Nathalie Novi), Noël des ramasseurs de neige, Rue du Monde, coll. « Couleur Carré », 2012.
 Catherine Gendrin (ill. Nathalie Novi), Yeghvala, la belle sorcière, Didier Jeunesse, 2012.
@@ -598,43 +683,45 @@
 Rascal (ill. Nathalie Novi), Les Quatre Saisons de Rose, Rue du Monde, 2004.
 Thierry Lenain (ill. Nathalie Novi), Maudit corbeau, Nathan, 2001.
 Mamadou a disparu  (ill. Nathalie Novi), 1998.
-Barbara (ill. Nathalie Novi, choisis par Thierry Lenain), Square des Batignolles, Thierry Magnier, 1998[10].
+Barbara (ill. Nathalie Novi, choisis par Thierry Lenain), Square des Batignolles, Thierry Magnier, 1998.
 Thierry Lenain (ill. Nathalie Novi), L'Amour Hérisson, Nathan, 1996.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nathalie_Novi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nathalie_Novi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2001 : Prix de l’Assemblée nationale[11] pour l’album-CD À l’ombre de l’olivier qu'elle a illustré, sur des textes de Magdeleine Lerasle et Hafida Favret
-2006 : Prix Saint-Exupéry[12] pour l’album Sous le grand Banian, texte de Jean-Claude Mourlevat, éditions Rue du monde.
-2006 :  Prix Libbylit[13], décerné par l'IBBY pour le même album.
-2007 :  Mention Prix BolognaRagazzi[14], catégorie Non-Fiction, Foire du livre de jeunesse de Bologne pour Une cuisine toute en chocolat, texte de Alain Serres, aux éditions Rue du monde.
-2014 : Prix Amerigo-Vespucci, Festival international de géographie de Saint-Dié, pour l'album Et si on redessinait le Monde. Texte de Daniel Picouly, aux éditions Rue du monde[15].
-2022 :  Prix BolognaRagazzi, catégorie spéciale Poésie[16], Foire du livre de jeunesse de Bologne  pour Immenses sont leurs ailes, textes de Murielle Szac</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2001 : Prix de l’Assemblée nationale pour l’album-CD À l’ombre de l’olivier qu'elle a illustré, sur des textes de Magdeleine Lerasle et Hafida Favret
+2006 : Prix Saint-Exupéry pour l’album Sous le grand Banian, texte de Jean-Claude Mourlevat, éditions Rue du monde.
+2006 :  Prix Libbylit, décerné par l'IBBY pour le même album.
+2007 :  Mention Prix BolognaRagazzi, catégorie Non-Fiction, Foire du livre de jeunesse de Bologne pour Une cuisine toute en chocolat, texte de Alain Serres, aux éditions Rue du monde.
+2014 : Prix Amerigo-Vespucci, Festival international de géographie de Saint-Dié, pour l'album Et si on redessinait le Monde. Texte de Daniel Picouly, aux éditions Rue du monde.
+2022 :  Prix BolognaRagazzi, catégorie spéciale Poésie, Foire du livre de jeunesse de Bologne  pour Immenses sont leurs ailes, textes de Murielle Szac</t>
         </is>
       </c>
     </row>
